--- a/data/output/FV2410_FV2404/UTILMD/55139.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55139.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10814" uniqueCount="712">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10835" uniqueCount="712">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2313,6 +2313,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U460" totalsRowShown="0">
+  <autoFilter ref="A1:U460"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2602,7 +2632,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U460"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -25297,5 +25330,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55139.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55139.xlsx
@@ -4097,7 +4097,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -4459,7 +4459,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -4807,7 +4807,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -5115,7 +5115,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -5997,7 +5997,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -6639,7 +6639,7 @@
         <v>656</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -6801,7 +6801,7 @@
         <v>657</v>
       </c>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -7005,7 +7005,7 @@
         <v>659</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -7209,7 +7209,7 @@
         <v>661</v>
       </c>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -7413,7 +7413,7 @@
         <v>663</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -7617,7 +7617,7 @@
         <v>665</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -7821,7 +7821,7 @@
         <v>666</v>
       </c>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -8023,7 +8023,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -8225,7 +8225,7 @@
         <v>668</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -8437,7 +8437,7 @@
         <v>668</v>
       </c>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -8711,7 +8711,7 @@
         <v>670</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -8931,7 +8931,7 @@
         <v>668</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -9147,7 +9147,7 @@
         <v>671</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -9295,7 +9295,7 @@
       </c>
       <c r="K102" s="2"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N102" s="2" t="s">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -9599,7 +9599,7 @@
       </c>
       <c r="K108" s="2"/>
       <c r="L108" s="4"/>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N108" s="2" t="s">
@@ -9921,7 +9921,7 @@
         <v>672</v>
       </c>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -10069,7 +10069,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -10227,7 +10227,7 @@
       </c>
       <c r="K120" s="2"/>
       <c r="L120" s="4"/>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N120" s="2" t="s">
@@ -10483,7 +10483,7 @@
         <v>668</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -10791,7 +10791,7 @@
         <v>668</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -11227,7 +11227,7 @@
         <v>668</v>
       </c>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -11535,7 +11535,7 @@
         <v>668</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -11951,7 +11951,7 @@
         <v>674</v>
       </c>
       <c r="L153" s="4"/>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N153" s="2" t="s">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -12519,7 +12519,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -12933,7 +12933,7 @@
         <v>677</v>
       </c>
       <c r="L172" s="4"/>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N172" s="2" t="s">
@@ -13081,7 +13081,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -13297,7 +13297,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -13517,7 +13517,7 @@
       </c>
       <c r="K183" s="2"/>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="K187" s="2"/>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -13951,7 +13951,7 @@
         <v>679</v>
       </c>
       <c r="L191" s="4"/>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N191" s="2" t="s">
@@ -14167,7 +14167,7 @@
         <v>680</v>
       </c>
       <c r="L195" s="4"/>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N195" s="2" t="s">
@@ -14471,7 +14471,7 @@
         <v>680</v>
       </c>
       <c r="L201" s="4"/>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N201" s="2" t="s">
@@ -14783,7 +14783,7 @@
         <v>681</v>
       </c>
       <c r="L207" s="4"/>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N207" s="2" t="s">
@@ -14931,7 +14931,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -15085,7 +15085,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N213" s="2" t="s">
@@ -15231,7 +15231,7 @@
       </c>
       <c r="K216" s="2"/>
       <c r="L216" s="4"/>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N216" s="2" t="s">
@@ -15551,7 +15551,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -15711,7 +15711,7 @@
         <v>682</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -15927,7 +15927,7 @@
         <v>683</v>
       </c>
       <c r="L229" s="4"/>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N229" s="2" t="s">
@@ -16139,7 +16139,7 @@
         <v>684</v>
       </c>
       <c r="L233" s="4"/>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N233" s="2" t="s">
@@ -16289,7 +16289,7 @@
         <v>685</v>
       </c>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -16509,7 +16509,7 @@
         <v>686</v>
       </c>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>74</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -16657,7 +16657,7 @@
       </c>
       <c r="K243" s="2"/>
       <c r="L243" s="4"/>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N243" s="2" t="s">
@@ -16811,7 +16811,7 @@
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="4"/>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="3" t="s">
         <v>75</v>
       </c>
       <c r="N246" s="2" t="s">
@@ -16957,7 +16957,7 @@
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="4"/>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="3" t="s">
         <v>76</v>
       </c>
       <c r="N249" s="2" t="s">
@@ -17553,7 +17553,7 @@
         <v>686</v>
       </c>
       <c r="L260" s="4"/>
-      <c r="M260" s="2" t="s">
+      <c r="M260" s="3" t="s">
         <v>77</v>
       </c>
       <c r="N260" s="2" t="s">
@@ -17701,7 +17701,7 @@
       </c>
       <c r="K263" s="2"/>
       <c r="L263" s="4"/>
-      <c r="M263" s="2" t="s">
+      <c r="M263" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N263" s="2" t="s">
@@ -17855,7 +17855,7 @@
       </c>
       <c r="K266" s="2"/>
       <c r="L266" s="4"/>
-      <c r="M266" s="2" t="s">
+      <c r="M266" s="3" t="s">
         <v>78</v>
       </c>
       <c r="N266" s="2" t="s">
@@ -18111,7 +18111,7 @@
         <v>686</v>
       </c>
       <c r="L271" s="4"/>
-      <c r="M271" s="2" t="s">
+      <c r="M271" s="3" t="s">
         <v>79</v>
       </c>
       <c r="N271" s="2" t="s">
@@ -18515,7 +18515,7 @@
         <v>690</v>
       </c>
       <c r="L279" s="4"/>
-      <c r="M279" s="2" t="s">
+      <c r="M279" s="3" t="s">
         <v>80</v>
       </c>
       <c r="N279" s="2" t="s">
@@ -18663,7 +18663,7 @@
       </c>
       <c r="K282" s="2"/>
       <c r="L282" s="4"/>
-      <c r="M282" s="2" t="s">
+      <c r="M282" s="3" t="s">
         <v>81</v>
       </c>
       <c r="N282" s="2" t="s">
@@ -18823,7 +18823,7 @@
         <v>691</v>
       </c>
       <c r="L285" s="4"/>
-      <c r="M285" s="2" t="s">
+      <c r="M285" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N285" s="2" t="s">
@@ -19127,7 +19127,7 @@
         <v>692</v>
       </c>
       <c r="L291" s="4"/>
-      <c r="M291" s="2" t="s">
+      <c r="M291" s="3" t="s">
         <v>82</v>
       </c>
       <c r="N291" s="2" t="s">
@@ -19275,7 +19275,7 @@
       </c>
       <c r="K294" s="2"/>
       <c r="L294" s="4"/>
-      <c r="M294" s="2" t="s">
+      <c r="M294" s="3" t="s">
         <v>83</v>
       </c>
       <c r="N294" s="2" t="s">
@@ -19439,7 +19439,7 @@
         <v>693</v>
       </c>
       <c r="L297" s="4"/>
-      <c r="M297" s="2" t="s">
+      <c r="M297" s="3" t="s">
         <v>84</v>
       </c>
       <c r="N297" s="2" t="s">
@@ -19605,7 +19605,7 @@
         <v>694</v>
       </c>
       <c r="L300" s="4"/>
-      <c r="M300" s="2" t="s">
+      <c r="M300" s="3" t="s">
         <v>85</v>
       </c>
       <c r="N300" s="2" t="s">
@@ -19771,7 +19771,7 @@
         <v>695</v>
       </c>
       <c r="L303" s="4"/>
-      <c r="M303" s="2" t="s">
+      <c r="M303" s="3" t="s">
         <v>86</v>
       </c>
       <c r="N303" s="2" t="s">
@@ -19937,7 +19937,7 @@
         <v>696</v>
       </c>
       <c r="L306" s="4"/>
-      <c r="M306" s="2" t="s">
+      <c r="M306" s="3" t="s">
         <v>87</v>
       </c>
       <c r="N306" s="2" t="s">
@@ -20099,7 +20099,7 @@
         <v>697</v>
       </c>
       <c r="L309" s="4"/>
-      <c r="M309" s="2" t="s">
+      <c r="M309" s="3" t="s">
         <v>88</v>
       </c>
       <c r="N309" s="2" t="s">
@@ -20357,7 +20357,7 @@
         <v>698</v>
       </c>
       <c r="L314" s="4"/>
-      <c r="M314" s="2" t="s">
+      <c r="M314" s="3" t="s">
         <v>89</v>
       </c>
       <c r="N314" s="2" t="s">
@@ -20615,7 +20615,7 @@
         <v>699</v>
       </c>
       <c r="L319" s="4"/>
-      <c r="M319" s="2" t="s">
+      <c r="M319" s="3" t="s">
         <v>90</v>
       </c>
       <c r="N319" s="2" t="s">
@@ -20871,7 +20871,7 @@
       </c>
       <c r="K324" s="2"/>
       <c r="L324" s="4"/>
-      <c r="M324" s="2" t="s">
+      <c r="M324" s="3" t="s">
         <v>91</v>
       </c>
       <c r="N324" s="2" t="s">
@@ -21127,7 +21127,7 @@
         <v>700</v>
       </c>
       <c r="L329" s="4"/>
-      <c r="M329" s="2" t="s">
+      <c r="M329" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N329" s="2" t="s">
@@ -21397,7 +21397,7 @@
         <v>682</v>
       </c>
       <c r="L334" s="4"/>
-      <c r="M334" s="2" t="s">
+      <c r="M334" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N334" s="2" t="s">
@@ -21613,7 +21613,7 @@
         <v>683</v>
       </c>
       <c r="L338" s="4"/>
-      <c r="M338" s="2" t="s">
+      <c r="M338" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N338" s="2" t="s">
@@ -21829,7 +21829,7 @@
         <v>701</v>
       </c>
       <c r="L342" s="4"/>
-      <c r="M342" s="2" t="s">
+      <c r="M342" s="3" t="s">
         <v>92</v>
       </c>
       <c r="N342" s="2" t="s">
@@ -22153,7 +22153,7 @@
         <v>699</v>
       </c>
       <c r="L348" s="4"/>
-      <c r="M348" s="2" t="s">
+      <c r="M348" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N348" s="2" t="s">
@@ -22423,7 +22423,7 @@
         <v>702</v>
       </c>
       <c r="L353" s="4"/>
-      <c r="M353" s="2" t="s">
+      <c r="M353" s="3" t="s">
         <v>94</v>
       </c>
       <c r="N353" s="2" t="s">
@@ -22585,7 +22585,7 @@
         <v>703</v>
       </c>
       <c r="L356" s="4"/>
-      <c r="M356" s="2" t="s">
+      <c r="M356" s="3" t="s">
         <v>95</v>
       </c>
       <c r="N356" s="2" t="s">
@@ -22747,7 +22747,7 @@
         <v>704</v>
       </c>
       <c r="L359" s="4"/>
-      <c r="M359" s="2" t="s">
+      <c r="M359" s="3" t="s">
         <v>96</v>
       </c>
       <c r="N359" s="2" t="s">
@@ -23013,7 +23013,7 @@
         <v>705</v>
       </c>
       <c r="L364" s="4"/>
-      <c r="M364" s="2" t="s">
+      <c r="M364" s="3" t="s">
         <v>97</v>
       </c>
       <c r="N364" s="2" t="s">
@@ -23317,7 +23317,7 @@
         <v>706</v>
       </c>
       <c r="L370" s="4"/>
-      <c r="M370" s="2" t="s">
+      <c r="M370" s="3" t="s">
         <v>98</v>
       </c>
       <c r="N370" s="2" t="s">
@@ -23465,7 +23465,7 @@
       </c>
       <c r="K373" s="2"/>
       <c r="L373" s="4"/>
-      <c r="M373" s="2" t="s">
+      <c r="M373" s="3" t="s">
         <v>99</v>
       </c>
       <c r="N373" s="2" t="s">
@@ -23623,7 +23623,7 @@
       </c>
       <c r="K376" s="2"/>
       <c r="L376" s="4"/>
-      <c r="M376" s="2" t="s">
+      <c r="M376" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N376" s="2" t="s">
@@ -23769,7 +23769,7 @@
       </c>
       <c r="K379" s="2"/>
       <c r="L379" s="4"/>
-      <c r="M379" s="2" t="s">
+      <c r="M379" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N379" s="2" t="s">
@@ -24091,7 +24091,7 @@
         <v>707</v>
       </c>
       <c r="L385" s="4"/>
-      <c r="M385" s="2" t="s">
+      <c r="M385" s="3" t="s">
         <v>100</v>
       </c>
       <c r="N385" s="2" t="s">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="K388" s="2"/>
       <c r="L388" s="4"/>
-      <c r="M388" s="2" t="s">
+      <c r="M388" s="3" t="s">
         <v>101</v>
       </c>
       <c r="N388" s="2" t="s">
@@ -24403,7 +24403,7 @@
         <v>708</v>
       </c>
       <c r="L391" s="4"/>
-      <c r="M391" s="2" t="s">
+      <c r="M391" s="3" t="s">
         <v>102</v>
       </c>
       <c r="N391" s="2" t="s">
@@ -24561,7 +24561,7 @@
         <v>668</v>
       </c>
       <c r="L394" s="4"/>
-      <c r="M394" s="2" t="s">
+      <c r="M394" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N394" s="2" t="s">
@@ -24709,7 +24709,7 @@
       </c>
       <c r="K397" s="2"/>
       <c r="L397" s="4"/>
-      <c r="M397" s="2" t="s">
+      <c r="M397" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N397" s="2" t="s">
@@ -25145,7 +25145,7 @@
       </c>
       <c r="K405" s="2"/>
       <c r="L405" s="4"/>
-      <c r="M405" s="2" t="s">
+      <c r="M405" s="3" t="s">
         <v>103</v>
       </c>
       <c r="N405" s="2" t="s">
@@ -25301,7 +25301,7 @@
         <v>709</v>
       </c>
       <c r="L408" s="4"/>
-      <c r="M408" s="2" t="s">
+      <c r="M408" s="3" t="s">
         <v>104</v>
       </c>
       <c r="N408" s="2" t="s">
@@ -25615,7 +25615,7 @@
       </c>
       <c r="K414" s="2"/>
       <c r="L414" s="4"/>
-      <c r="M414" s="2" t="s">
+      <c r="M414" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N414" s="2" t="s">
@@ -25775,7 +25775,7 @@
         <v>709</v>
       </c>
       <c r="L417" s="4"/>
-      <c r="M417" s="2" t="s">
+      <c r="M417" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N417" s="2" t="s">
@@ -26309,7 +26309,7 @@
       </c>
       <c r="K427" s="2"/>
       <c r="L427" s="4"/>
-      <c r="M427" s="2" t="s">
+      <c r="M427" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N427" s="2" t="s">
@@ -26469,7 +26469,7 @@
         <v>709</v>
       </c>
       <c r="L430" s="4"/>
-      <c r="M430" s="2" t="s">
+      <c r="M430" s="3" t="s">
         <v>106</v>
       </c>
       <c r="N430" s="2" t="s">
@@ -27001,7 +27001,7 @@
         <v>709</v>
       </c>
       <c r="L440" s="4"/>
-      <c r="M440" s="2" t="s">
+      <c r="M440" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N440" s="2" t="s">
@@ -27533,7 +27533,7 @@
         <v>711</v>
       </c>
       <c r="L450" s="4"/>
-      <c r="M450" s="2" t="s">
+      <c r="M450" s="3" t="s">
         <v>108</v>
       </c>
       <c r="N450" s="2" t="s">
@@ -27953,7 +27953,7 @@
       </c>
       <c r="K458" s="2"/>
       <c r="L458" s="4"/>
-      <c r="M458" s="2" t="s">
+      <c r="M458" s="3" t="s">
         <v>109</v>
       </c>
       <c r="N458" s="2"/>
